--- a/analytics/raw_data/tbf_market_garden_sales_2024_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_sales_2024_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1408" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1573" uniqueCount="75">
   <si>
     <t>sale_date</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>2024-10-12</t>
   </si>
   <si>
     <t>sale_location</t>
@@ -192,6 +195,18 @@
     <t>broccoli- calabrese</t>
   </si>
   <si>
+    <t>corn- ornamental, glass gem</t>
+  </si>
+  <si>
+    <t>pepper- sugar rush stripey</t>
+  </si>
+  <si>
+    <t>pepper- chocolate scotch bonet</t>
+  </si>
+  <si>
+    <t>pepper- pimenta puma</t>
+  </si>
+  <si>
     <t>sale_amnt</t>
   </si>
   <si>
@@ -217,6 +232,9 @@
   </si>
   <si>
     <t>quart</t>
+  </si>
+  <si>
+    <t>unti</t>
   </si>
   <si>
     <t>sale_value_usd</t>
@@ -265,7 +283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H281"/>
+  <dimension ref="A1:H314"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -276,25 +294,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
@@ -302,20 +320,20 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1">
         <v>10</v>
@@ -326,20 +344,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1">
         <v>10</v>
@@ -350,20 +368,20 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H4" s="1">
         <v>10</v>
@@ -374,20 +392,20 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -398,20 +416,20 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H6" s="1">
         <v>5</v>
@@ -422,20 +440,20 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
@@ -446,20 +464,20 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -470,20 +488,20 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H9" s="1">
         <v>10</v>
@@ -494,20 +512,20 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1">
         <v>5</v>
@@ -518,20 +536,20 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H11" s="1">
         <v>10</v>
@@ -542,20 +560,20 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H12" s="1">
         <v>10</v>
@@ -566,20 +584,20 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H13" s="1">
         <v>10</v>
@@ -590,20 +608,20 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H14" s="1">
         <v>10</v>
@@ -614,20 +632,20 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H15" s="1">
         <v>10</v>
@@ -638,20 +656,20 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H16" s="1">
         <v>10</v>
@@ -662,20 +680,20 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H17" s="1">
         <v>5</v>
@@ -686,20 +704,20 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H18" s="1">
         <v>3</v>
@@ -710,20 +728,20 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
@@ -734,20 +752,20 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1">
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H20" s="1">
         <v>2</v>
@@ -758,20 +776,20 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H21" s="1">
         <v>5</v>
@@ -782,20 +800,20 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H22" s="1">
         <v>5</v>
@@ -806,20 +824,20 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H23" s="1">
         <v>5</v>
@@ -830,20 +848,20 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H24" s="1">
         <v>10</v>
@@ -854,20 +872,20 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" s="1">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H25" s="1">
         <v>90</v>
@@ -878,22 +896,22 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H26" s="1">
         <v>5</v>
@@ -904,22 +922,22 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H27" s="1">
         <v>5</v>
@@ -930,22 +948,22 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" s="1">
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -956,22 +974,22 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" s="1">
         <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H29" s="1">
         <v>3</v>
@@ -982,22 +1000,22 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" s="1">
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -1008,22 +1026,22 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" s="1">
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H31" s="1">
         <v>2</v>
@@ -1034,22 +1052,22 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H32" s="1">
         <v>10</v>
@@ -1060,22 +1078,22 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" s="1">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H33" s="1">
         <v>1</v>
@@ -1086,22 +1104,22 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H34" s="1">
         <v>10</v>
@@ -1112,22 +1130,22 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H35" s="1">
         <v>10</v>
@@ -1138,22 +1156,22 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H36" s="1">
         <v>10</v>
@@ -1164,22 +1182,22 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H37" s="1">
         <v>10</v>
@@ -1190,22 +1208,22 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H38" s="1">
         <v>10</v>
@@ -1216,22 +1234,22 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F39" s="1">
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H39" s="1">
         <v>5</v>
@@ -1242,22 +1260,22 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F40" s="1">
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H40" s="1">
         <v>1</v>
@@ -1268,22 +1286,22 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" s="1">
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H41" s="1">
         <v>1</v>
@@ -1294,22 +1312,22 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -1320,22 +1338,22 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H43" s="1">
         <v>9</v>
@@ -1346,22 +1364,22 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C44" s="1">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H44" s="1">
         <v>9</v>
@@ -1372,22 +1390,22 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" s="1">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H45" s="1">
         <v>10</v>
@@ -1398,22 +1416,22 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F46" s="1">
         <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H46" s="1">
         <v>5</v>
@@ -1424,22 +1442,22 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H47" s="1">
         <v>10</v>
@@ -1450,22 +1468,22 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C48" s="1">
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F48" s="1">
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H48" s="1">
         <v>1</v>
@@ -1476,22 +1494,22 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C49" s="1">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F49" s="1">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H49" s="1">
         <v>1</v>
@@ -1502,22 +1520,22 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1">
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F50" s="1">
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H50" s="1">
         <v>1</v>
@@ -1528,22 +1546,22 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1">
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F51" s="1">
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H51" s="1">
         <v>30</v>
@@ -1554,22 +1572,22 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C52" s="1">
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H52" s="1">
         <v>1</v>
@@ -1580,22 +1598,22 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C53" s="1">
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F53" s="1">
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H53" s="1">
         <v>1</v>
@@ -1606,22 +1624,22 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1">
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F54" s="1">
         <v>0.5</v>
       </c>
       <c r="G54" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H54" s="1">
         <v>3</v>
@@ -1632,22 +1650,22 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C55" s="1">
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F55" s="1">
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H55" s="1">
         <v>1</v>
@@ -1658,22 +1676,22 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1">
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F56" s="1">
         <v>0.5</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H56" s="1">
         <v>3</v>
@@ -1684,22 +1702,22 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F57" s="1">
         <v>4</v>
       </c>
       <c r="G57" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H57" s="1">
         <v>1</v>
@@ -1710,22 +1728,22 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1">
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F58" s="1">
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H58" s="1">
         <v>1</v>
@@ -1736,22 +1754,22 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1">
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F59" s="1">
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H59" s="1">
         <v>1</v>
@@ -1762,22 +1780,22 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1">
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F60" s="1">
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H60" s="1">
         <v>20</v>
@@ -1788,22 +1806,22 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1">
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H61" s="1">
         <v>10</v>
@@ -1814,22 +1832,22 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1">
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F62" s="1">
         <v>0.5</v>
       </c>
       <c r="G62" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H62" s="1">
         <v>3</v>
@@ -1840,22 +1858,22 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1">
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F63" s="1">
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H63" s="1">
         <v>1</v>
@@ -1866,22 +1884,22 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C64" s="1">
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F64" s="1">
         <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H64" s="1">
         <v>3</v>
@@ -1892,20 +1910,20 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F65" s="1">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H65" s="1">
         <v>10</v>
@@ -1916,20 +1934,20 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F66" s="1">
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H66" s="1">
         <v>2</v>
@@ -1940,20 +1958,20 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F67" s="1">
         <v>0.5</v>
       </c>
       <c r="G67" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H67" s="1">
         <v>3</v>
@@ -1964,20 +1982,20 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F68" s="1">
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H68" s="1">
         <v>1</v>
@@ -1988,20 +2006,20 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F69" s="1">
         <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H69" s="1">
         <v>1</v>
@@ -2012,20 +2030,20 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F70" s="1">
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H70" s="1">
         <v>2</v>
@@ -2036,20 +2054,20 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F71" s="1">
         <v>3</v>
       </c>
       <c r="G71" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H71" s="1">
         <v>1</v>
@@ -2060,20 +2078,20 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F72" s="1">
         <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H72" s="1">
         <v>2</v>
@@ -2084,20 +2102,20 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F73" s="1">
         <v>0.5</v>
       </c>
       <c r="G73" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H73" s="1">
         <v>3</v>
@@ -2108,20 +2126,20 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F74" s="1">
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H74" s="1">
         <v>1</v>
@@ -2132,20 +2150,20 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F75" s="1">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H75" s="1">
         <v>10</v>
@@ -2156,20 +2174,20 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" s="1">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H76" s="1">
         <v>6</v>
@@ -2180,20 +2198,20 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" s="1">
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H77" s="1">
         <v>6</v>
@@ -2204,22 +2222,22 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C78" s="1">
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F78" s="1">
         <v>0.5</v>
       </c>
       <c r="G78" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H78" s="1">
         <v>3</v>
@@ -2230,22 +2248,22 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C79" s="1">
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" s="1">
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H79" s="1">
         <v>3</v>
@@ -2256,22 +2274,22 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C80" s="1">
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" s="1">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H80" s="1">
         <v>4</v>
@@ -2282,22 +2300,22 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C81" s="1">
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F81" s="1">
         <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H81" s="1">
         <v>3</v>
@@ -2308,22 +2326,22 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C82" s="1">
         <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" s="1">
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H82" s="1">
         <v>3</v>
@@ -2334,22 +2352,22 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C83" s="1">
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F83" s="1">
         <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H83" s="1">
         <v>1</v>
@@ -2360,22 +2378,22 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C84" s="1">
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F84" s="1">
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H84" s="1">
         <v>1</v>
@@ -2386,22 +2404,22 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C85" s="1">
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F85" s="1">
         <v>24</v>
       </c>
       <c r="G85" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H85" s="1">
         <v>20</v>
@@ -2412,22 +2430,22 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C86" s="1">
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F86" s="1">
         <v>6</v>
       </c>
       <c r="G86" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H86" s="1">
         <v>5</v>
@@ -2438,22 +2456,22 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C87" s="1">
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F87" s="1">
         <v>0.5</v>
       </c>
       <c r="G87" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H87" s="1">
         <v>3</v>
@@ -2464,22 +2482,22 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C88" s="1">
         <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F88" s="1">
         <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H88" s="1">
         <v>1</v>
@@ -2490,22 +2508,22 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C89" s="1">
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F89" s="1">
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H89" s="1">
         <v>2</v>
@@ -2516,22 +2534,22 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C90" s="1">
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" s="1">
         <v>0.5</v>
       </c>
       <c r="G90" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H90" s="1">
         <v>3</v>
@@ -2542,22 +2560,22 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C91" s="1">
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H91" s="1">
         <v>20</v>
@@ -2568,22 +2586,22 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C92" s="1">
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F92" s="1">
         <v>0.5</v>
       </c>
       <c r="G92" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H92" s="1">
         <v>3</v>
@@ -2594,22 +2612,22 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C93" s="1">
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F93" s="1">
         <v>6</v>
       </c>
       <c r="G93" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H93" s="1">
         <v>2</v>
@@ -2620,22 +2638,22 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C94" s="1">
         <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F94" s="1">
         <v>0.5</v>
       </c>
       <c r="G94" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H94" s="1">
         <v>3</v>
@@ -2646,22 +2664,22 @@
         <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C95" s="1">
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F95" s="1">
         <v>0.5</v>
       </c>
       <c r="G95" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H95" s="1">
         <v>3</v>
@@ -2672,22 +2690,22 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C96" s="1">
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F96" s="1">
         <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H96" s="1">
         <v>1</v>
@@ -2698,22 +2716,22 @@
         <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C97" s="1">
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" s="1">
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H97" s="1">
         <v>4</v>
@@ -2724,22 +2742,22 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C98" s="1">
         <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F98" s="1">
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H98" s="1">
         <v>10</v>
@@ -2750,22 +2768,22 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C99" s="1">
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F99" s="1">
         <v>2</v>
       </c>
       <c r="G99" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H99" s="1">
         <v>18</v>
@@ -2776,22 +2794,22 @@
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C100" s="1">
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" s="1">
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H100" s="1">
         <v>6</v>
@@ -2802,22 +2820,22 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C101" s="1">
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F101" s="1">
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H101" s="1">
         <v>3</v>
@@ -2828,22 +2846,22 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C102" s="1">
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F102" s="1">
         <v>4</v>
       </c>
       <c r="G102" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H102" s="1">
         <v>5</v>
@@ -2854,22 +2872,22 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C103" s="1">
         <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" s="1">
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H103" s="1">
         <v>3</v>
@@ -2880,22 +2898,22 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C104" s="1">
         <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F104" s="1">
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H104" s="1">
         <v>1</v>
@@ -2906,18 +2924,18 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H105" s="1">
         <v>16</v>
@@ -2928,22 +2946,22 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C106" s="1">
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F106" s="1">
         <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H106" s="1">
         <v>1</v>
@@ -2954,22 +2972,22 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C107" s="1">
         <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F107" s="1">
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H107" s="1">
         <v>3</v>
@@ -2980,22 +2998,22 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C108" s="1">
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F108" s="1">
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H108" s="1">
         <v>1</v>
@@ -3006,22 +3024,22 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C109" s="1">
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F109" s="1">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H109" s="1">
         <v>10</v>
@@ -3032,22 +3050,22 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C110" s="1">
         <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" s="1">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H110" s="1">
         <v>3</v>
@@ -3058,22 +3076,22 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C111" s="1">
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H111" s="1">
         <v>3</v>
@@ -3084,22 +3102,22 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C112" s="1">
         <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F112" s="1">
         <v>6</v>
       </c>
       <c r="G112" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H112" s="1">
         <v>4</v>
@@ -3110,22 +3128,22 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C113" s="1">
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F113" s="1">
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H113" s="1">
         <v>10</v>
@@ -3136,22 +3154,22 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C114" s="1">
         <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F114" s="1">
         <v>4</v>
       </c>
       <c r="G114" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H114" s="1">
         <v>1</v>
@@ -3162,22 +3180,22 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C115" s="1">
         <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F115" s="1">
         <v>2</v>
       </c>
       <c r="G115" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H115" s="1">
         <v>1</v>
@@ -3188,22 +3206,22 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C116" s="1">
         <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" s="1">
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H116" s="1">
         <v>3</v>
@@ -3214,22 +3232,22 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C117" s="1">
         <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F117" s="1">
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H117" s="1">
         <v>3</v>
@@ -3240,22 +3258,22 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C118" s="1">
         <v>5</v>
       </c>
       <c r="D118" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F118" s="1">
         <v>4</v>
       </c>
       <c r="G118" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H118" s="1">
         <v>1</v>
@@ -3266,22 +3284,22 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C119" s="1">
         <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F119" s="1">
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H119" s="1">
         <v>1</v>
@@ -3292,22 +3310,22 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C120" s="1">
         <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F120" s="1">
         <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H120" s="1">
         <v>2</v>
@@ -3318,22 +3336,22 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C121" s="1">
         <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F121" s="1">
         <v>10</v>
       </c>
       <c r="G121" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H121" s="1">
         <v>5</v>
@@ -3344,22 +3362,22 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C122" s="1">
         <v>5</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F122" s="1">
         <v>3</v>
       </c>
       <c r="G122" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H122" s="1">
         <v>10</v>
@@ -3370,22 +3388,22 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C123" s="1">
         <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F123" s="1">
         <v>3</v>
       </c>
       <c r="G123" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H123" s="1">
         <v>1</v>
@@ -3396,22 +3414,22 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C124" s="1">
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F124" s="1">
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H124" s="1">
         <v>3</v>
@@ -3422,22 +3440,22 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C125" s="1">
         <v>5</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E125" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F125" s="1">
         <v>10</v>
       </c>
       <c r="G125" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H125" s="1">
         <v>2</v>
@@ -3448,22 +3466,22 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C126" s="1">
         <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E126" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F126" s="1">
         <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H126" s="1">
         <v>4</v>
@@ -3474,22 +3492,22 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C127" s="1">
         <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F127" s="1">
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H127" s="1">
         <v>10</v>
@@ -3500,22 +3518,22 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C128" s="1">
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E128" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F128" s="1">
         <v>3</v>
       </c>
       <c r="G128" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H128" s="1">
         <v>3</v>
@@ -3526,22 +3544,22 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C129" s="1">
         <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F129" s="1">
         <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H129" s="1">
         <v>3</v>
@@ -3552,22 +3570,22 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C130" s="1">
         <v>5</v>
       </c>
       <c r="D130" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F130" s="1">
         <v>3</v>
       </c>
       <c r="G130" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H130" s="1">
         <v>1</v>
@@ -3578,22 +3596,22 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C131" s="1">
         <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F131" s="1">
         <v>4</v>
       </c>
       <c r="G131" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H131" s="1">
         <v>12</v>
@@ -3604,22 +3622,22 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C132" s="1">
         <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F132" s="1">
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H132" s="1">
         <v>3</v>
@@ -3630,22 +3648,22 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C133" s="1">
         <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F133" s="1">
         <v>4</v>
       </c>
       <c r="G133" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H133" s="1">
         <v>1</v>
@@ -3656,22 +3674,22 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C134" s="1">
         <v>5</v>
       </c>
       <c r="D134" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F134" s="1">
         <v>4</v>
       </c>
       <c r="G134" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H134" s="1">
         <v>1</v>
@@ -3682,18 +3700,18 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H135" s="1">
         <v>5</v>
@@ -3704,22 +3722,22 @@
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C136" s="1">
         <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F136" s="1">
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H136" s="1">
         <v>10</v>
@@ -3730,22 +3748,22 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C137" s="1">
         <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F137" s="1">
         <v>4</v>
       </c>
       <c r="G137" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H137" s="1">
         <v>2</v>
@@ -3756,22 +3774,22 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C138" s="1">
         <v>5</v>
       </c>
       <c r="D138" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F138" s="1">
         <v>15</v>
       </c>
       <c r="G138" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H138" s="1">
         <v>5</v>
@@ -3782,22 +3800,22 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C139" s="1">
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F139" s="1">
         <v>3</v>
       </c>
       <c r="G139" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H139" s="1">
         <v>1</v>
@@ -3808,22 +3826,22 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C140" s="1">
         <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F140" s="1">
         <v>3</v>
       </c>
       <c r="G140" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H140" s="1">
         <v>1</v>
@@ -3834,22 +3852,22 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C141" s="1">
         <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F141" s="1">
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H141" s="1">
         <v>2</v>
@@ -3860,22 +3878,22 @@
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C142" s="1">
         <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F142" s="1">
         <v>3</v>
       </c>
       <c r="G142" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H142" s="1">
         <v>5</v>
@@ -3886,22 +3904,22 @@
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C143" s="1">
         <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F143" s="1">
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H143" s="1">
         <v>1</v>
@@ -3912,22 +3930,22 @@
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C144" s="1">
         <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F144" s="1">
         <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H144" s="1">
         <v>2</v>
@@ -3938,22 +3956,22 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C145" s="1">
         <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F145" s="1">
         <v>3</v>
       </c>
       <c r="G145" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H145" s="1">
         <v>1</v>
@@ -3964,22 +3982,22 @@
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C146" s="1">
         <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F146" s="1">
         <v>3</v>
       </c>
       <c r="G146" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H146" s="1">
         <v>1</v>
@@ -3990,22 +4008,22 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C147" s="1">
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F147" s="1">
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H147" s="1">
         <v>2</v>
@@ -4016,22 +4034,22 @@
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C148" s="1">
         <v>5</v>
       </c>
       <c r="D148" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E148" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F148" s="1">
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H148" s="1">
         <v>2</v>
@@ -4042,22 +4060,22 @@
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C149" s="1">
         <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F149" s="1">
         <v>3</v>
       </c>
       <c r="G149" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H149" s="1">
         <v>1</v>
@@ -4068,22 +4086,22 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C150" s="1">
         <v>5</v>
       </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F150" s="1">
         <v>3</v>
       </c>
       <c r="G150" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H150" s="1">
         <v>1</v>
@@ -4094,22 +4112,22 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C151" s="1">
         <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F151" s="1">
         <v>3</v>
       </c>
       <c r="G151" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H151" s="1">
         <v>1</v>
@@ -4120,22 +4138,22 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C152" s="1">
         <v>5</v>
       </c>
       <c r="D152" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F152" s="1">
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H152" s="1">
         <v>10</v>
@@ -4146,22 +4164,22 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C153" s="1">
         <v>5</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F153" s="1">
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H153" s="1">
         <v>2</v>
@@ -4172,22 +4190,22 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C154" s="1">
         <v>5</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E154" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F154" s="1">
         <v>8</v>
       </c>
       <c r="G154" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H154" s="1">
         <v>4</v>
@@ -4198,22 +4216,22 @@
         <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C155" s="1">
         <v>5</v>
       </c>
       <c r="D155" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F155" s="1">
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H155" s="1">
         <v>10</v>
@@ -4224,22 +4242,22 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C156" s="1">
         <v>5</v>
       </c>
       <c r="D156" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E156" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F156" s="1">
         <v>4</v>
       </c>
       <c r="G156" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H156" s="1">
         <v>1</v>
@@ -4250,22 +4268,22 @@
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C157" s="1">
         <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F157" s="1">
         <v>4</v>
       </c>
       <c r="G157" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H157" s="1">
         <v>1</v>
@@ -4276,22 +4294,22 @@
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C158" s="1">
         <v>5</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F158" s="1">
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H158" s="1">
         <v>1</v>
@@ -4302,22 +4320,22 @@
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C159" s="1">
         <v>5</v>
       </c>
       <c r="D159" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F159" s="1">
         <v>6</v>
       </c>
       <c r="G159" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H159" s="1">
         <v>2</v>
@@ -4328,22 +4346,22 @@
         <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C160" s="1">
         <v>5</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F160" s="1">
         <v>4</v>
       </c>
       <c r="G160" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H160" s="1">
         <v>1</v>
@@ -4354,22 +4372,22 @@
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C161" s="1">
         <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F161" s="1">
         <v>56</v>
       </c>
       <c r="G161" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H161" s="1">
         <v>7</v>
@@ -4380,22 +4398,22 @@
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C162" s="1">
         <v>5</v>
       </c>
       <c r="D162" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F162" s="1">
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H162" s="1">
         <v>9</v>
@@ -4406,22 +4424,22 @@
         <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C163" s="1">
         <v>5</v>
       </c>
       <c r="D163" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F163" s="1">
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H163" s="1">
         <v>9</v>
@@ -4432,22 +4450,22 @@
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C164" s="1">
         <v>5</v>
       </c>
       <c r="D164" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F164" s="1">
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H164" s="1">
         <v>3</v>
@@ -4458,22 +4476,22 @@
         <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C165" s="1">
         <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F165" s="1">
         <v>2</v>
       </c>
       <c r="G165" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H165" s="1">
         <v>18</v>
@@ -4484,22 +4502,22 @@
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C166" s="1">
         <v>5</v>
       </c>
       <c r="D166" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F166" s="1">
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H166" s="1">
         <v>15</v>
@@ -4510,22 +4528,22 @@
         <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C167" s="1">
         <v>5</v>
       </c>
       <c r="D167" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F167" s="1">
         <v>2</v>
       </c>
       <c r="G167" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H167" s="1">
         <v>18</v>
@@ -4536,22 +4554,22 @@
         <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C168" s="1">
         <v>5</v>
       </c>
       <c r="D168" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F168" s="1">
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H168" s="1">
         <v>10</v>
@@ -4562,22 +4580,22 @@
         <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C169" s="1">
         <v>5</v>
       </c>
       <c r="D169" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F169" s="1">
         <v>2</v>
       </c>
       <c r="G169" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H169" s="1">
         <v>18</v>
@@ -4588,22 +4606,22 @@
         <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C170" s="1">
         <v>5</v>
       </c>
       <c r="D170" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F170" s="1">
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H170" s="1">
         <v>2</v>
@@ -4614,22 +4632,22 @@
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C171" s="1">
         <v>5</v>
       </c>
       <c r="D171" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F171" s="1">
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H171" s="1">
         <v>10</v>
@@ -4640,22 +4658,22 @@
         <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C172" s="1">
         <v>5</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E172" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F172" s="1">
         <v>4</v>
       </c>
       <c r="G172" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H172" s="1">
         <v>1</v>
@@ -4666,18 +4684,18 @@
         <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F173" s="1"/>
       <c r="G173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H173" s="1">
         <v>14</v>
@@ -4688,22 +4706,22 @@
         <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C174" s="1">
         <v>5</v>
       </c>
       <c r="D174" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F174" s="1">
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H174" s="1">
         <v>3</v>
@@ -4714,22 +4732,22 @@
         <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C175" s="1">
         <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F175" s="1">
         <v>4</v>
       </c>
       <c r="G175" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H175" s="1">
         <v>10</v>
@@ -4740,22 +4758,22 @@
         <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C176" s="1">
         <v>5</v>
       </c>
       <c r="D176" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F176" s="1">
         <v>2</v>
       </c>
       <c r="G176" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H176" s="1">
         <v>1</v>
@@ -4766,22 +4784,22 @@
         <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C177" s="1">
         <v>5</v>
       </c>
       <c r="D177" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F177" s="1">
         <v>6</v>
       </c>
       <c r="G177" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H177" s="1">
         <v>5</v>
@@ -4792,22 +4810,22 @@
         <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C178" s="1">
         <v>5</v>
       </c>
       <c r="D178" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E178" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F178" s="1">
         <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H178" s="1">
         <v>2</v>
@@ -4818,22 +4836,22 @@
         <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C179" s="1">
         <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E179" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F179" s="1">
         <v>24</v>
       </c>
       <c r="G179" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H179" s="1">
         <v>12</v>
@@ -4844,22 +4862,22 @@
         <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C180" s="1">
         <v>5</v>
       </c>
       <c r="D180" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F180" s="1">
         <v>12</v>
       </c>
       <c r="G180" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H180" s="1">
         <v>10</v>
@@ -4870,22 +4888,22 @@
         <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C181" s="1">
         <v>5</v>
       </c>
       <c r="D181" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F181" s="1">
         <v>2</v>
       </c>
       <c r="G181" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H181" s="1">
         <v>18</v>
@@ -4896,22 +4914,22 @@
         <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C182" s="1">
         <v>5</v>
       </c>
       <c r="D182" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E182" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F182" s="1">
         <v>6</v>
       </c>
       <c r="G182" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H182" s="1">
         <v>2</v>
@@ -4922,22 +4940,22 @@
         <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C183" s="1">
         <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E183" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F183" s="1">
         <v>3</v>
       </c>
       <c r="G183" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H183" s="1">
         <v>1</v>
@@ -4948,22 +4966,22 @@
         <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C184" s="1">
         <v>5</v>
       </c>
       <c r="D184" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E184" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F184" s="1">
         <v>20</v>
       </c>
       <c r="G184" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H184" s="1">
         <v>2</v>
@@ -4974,22 +4992,22 @@
         <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C185" s="1">
         <v>5</v>
       </c>
       <c r="D185" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F185" s="1">
         <v>2</v>
       </c>
       <c r="G185" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H185" s="1">
         <v>1</v>
@@ -5000,22 +5018,22 @@
         <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C186" s="1">
         <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E186" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F186" s="1">
         <v>4</v>
       </c>
       <c r="G186" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H186" s="1">
         <v>2</v>
@@ -5026,22 +5044,22 @@
         <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C187" s="1">
         <v>5</v>
       </c>
       <c r="D187" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E187" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F187" s="1">
         <v>2</v>
       </c>
       <c r="G187" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H187" s="1">
         <v>1</v>
@@ -5052,22 +5070,22 @@
         <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C188" s="1">
         <v>5</v>
       </c>
       <c r="D188" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E188" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F188" s="1">
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H188" s="1">
         <v>10</v>
@@ -5078,22 +5096,22 @@
         <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C189" s="1">
         <v>5</v>
       </c>
       <c r="D189" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F189" s="1">
         <v>16</v>
       </c>
       <c r="G189" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H189" s="1">
         <v>2</v>
@@ -5104,22 +5122,22 @@
         <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C190" s="1">
         <v>5</v>
       </c>
       <c r="D190" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E190" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F190" s="1">
         <v>8</v>
       </c>
       <c r="G190" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H190" s="1">
         <v>1</v>
@@ -5130,22 +5148,22 @@
         <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C191" s="1">
         <v>5</v>
       </c>
       <c r="D191" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E191" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F191" s="1">
         <v>3</v>
       </c>
       <c r="G191" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H191" s="1">
         <v>1</v>
@@ -5156,22 +5174,22 @@
         <v>12</v>
       </c>
       <c r="B192" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C192" s="1">
         <v>5</v>
       </c>
       <c r="D192" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E192" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F192" s="1">
         <v>3</v>
       </c>
       <c r="G192" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H192" s="1">
         <v>1</v>
@@ -5182,22 +5200,22 @@
         <v>12</v>
       </c>
       <c r="B193" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C193" s="1">
         <v>5</v>
       </c>
       <c r="D193" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E193" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F193" s="1">
         <v>3</v>
       </c>
       <c r="G193" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H193" s="1">
         <v>1</v>
@@ -5208,22 +5226,22 @@
         <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C194" s="1">
         <v>5</v>
       </c>
       <c r="D194" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E194" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F194" s="1">
         <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H194" s="1">
         <v>3</v>
@@ -5234,22 +5252,22 @@
         <v>12</v>
       </c>
       <c r="B195" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C195" s="1">
         <v>5</v>
       </c>
       <c r="D195" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E195" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F195" s="1">
         <v>3</v>
       </c>
       <c r="G195" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H195" s="1">
         <v>1</v>
@@ -5260,22 +5278,22 @@
         <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C196" s="1">
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E196" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F196" s="1">
         <v>8</v>
       </c>
       <c r="G196" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H196" s="1">
         <v>4</v>
@@ -5286,22 +5304,22 @@
         <v>12</v>
       </c>
       <c r="B197" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C197" s="1">
         <v>5</v>
       </c>
       <c r="D197" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F197" s="1">
         <v>2</v>
       </c>
       <c r="G197" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H197" s="1">
         <v>4</v>
@@ -5312,22 +5330,22 @@
         <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C198" s="1">
         <v>5</v>
       </c>
       <c r="D198" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F198" s="1">
         <v>1</v>
       </c>
       <c r="G198" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H198" s="1">
         <v>3</v>
@@ -5338,22 +5356,22 @@
         <v>12</v>
       </c>
       <c r="B199" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C199" s="1">
         <v>5</v>
       </c>
       <c r="D199" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E199" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F199" s="1">
         <v>1</v>
       </c>
       <c r="G199" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H199" s="1">
         <v>10</v>
@@ -5364,20 +5382,20 @@
         <v>12</v>
       </c>
       <c r="B200" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C200" s="1">
         <v>5</v>
       </c>
       <c r="D200" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E200" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H200" s="1">
         <v>20</v>
@@ -5388,20 +5406,20 @@
         <v>12</v>
       </c>
       <c r="B201" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C201" s="1">
         <v>5</v>
       </c>
       <c r="D201" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E201" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H201" s="1">
         <v>20</v>
@@ -5412,18 +5430,18 @@
         <v>12</v>
       </c>
       <c r="B202" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H202" s="1">
         <v>14</v>
@@ -5434,22 +5452,22 @@
         <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C203" s="1">
         <v>5</v>
       </c>
       <c r="D203" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E203" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F203" s="1">
         <v>8</v>
       </c>
       <c r="G203" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H203" s="1">
         <v>1</v>
@@ -5460,22 +5478,22 @@
         <v>13</v>
       </c>
       <c r="B204" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C204" s="1">
         <v>5</v>
       </c>
       <c r="D204" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F204" s="1">
         <v>2</v>
       </c>
       <c r="G204" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H204" s="1">
         <v>0.5</v>
@@ -5486,22 +5504,22 @@
         <v>13</v>
       </c>
       <c r="B205" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C205" s="1">
         <v>5</v>
       </c>
       <c r="D205" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E205" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F205" s="1">
         <v>2</v>
       </c>
       <c r="G205" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H205" s="1">
         <v>0.5</v>
@@ -5512,22 +5530,22 @@
         <v>13</v>
       </c>
       <c r="B206" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C206" s="1">
         <v>5</v>
       </c>
       <c r="D206" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E206" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F206" s="1">
         <v>1</v>
       </c>
       <c r="G206" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H206" s="1">
         <v>3</v>
@@ -5538,22 +5556,22 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C207" s="1">
         <v>5</v>
       </c>
       <c r="D207" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E207" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F207" s="1">
         <v>2</v>
       </c>
       <c r="G207" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H207" s="1">
         <v>18</v>
@@ -5564,22 +5582,22 @@
         <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C208" s="1">
         <v>5</v>
       </c>
       <c r="D208" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E208" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F208" s="1">
         <v>3</v>
       </c>
       <c r="G208" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H208" s="1">
         <v>1</v>
@@ -5590,22 +5608,22 @@
         <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C209" s="1">
         <v>5</v>
       </c>
       <c r="D209" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E209" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F209" s="1">
         <v>9</v>
       </c>
       <c r="G209" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H209" s="1">
         <v>4</v>
@@ -5616,22 +5634,22 @@
         <v>13</v>
       </c>
       <c r="B210" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C210" s="1">
         <v>5</v>
       </c>
       <c r="D210" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E210" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F210" s="1">
         <v>21</v>
       </c>
       <c r="G210" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H210" s="1">
         <v>9</v>
@@ -5642,22 +5660,22 @@
         <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C211" s="1">
         <v>5</v>
       </c>
       <c r="D211" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E211" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F211" s="1">
         <v>2</v>
       </c>
       <c r="G211" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H211" s="1">
         <v>6</v>
@@ -5668,22 +5686,22 @@
         <v>13</v>
       </c>
       <c r="B212" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C212" s="1">
         <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E212" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F212" s="1">
         <v>2</v>
       </c>
       <c r="G212" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H212" s="1">
         <v>18</v>
@@ -5694,22 +5712,22 @@
         <v>13</v>
       </c>
       <c r="B213" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C213" s="1">
         <v>5</v>
       </c>
       <c r="D213" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E213" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F213" s="1">
         <v>6</v>
       </c>
       <c r="G213" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H213" s="1">
         <v>2</v>
@@ -5720,22 +5738,22 @@
         <v>13</v>
       </c>
       <c r="B214" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C214" s="1">
         <v>5</v>
       </c>
       <c r="D214" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E214" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F214" s="1">
         <v>3</v>
       </c>
       <c r="G214" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H214" s="1">
         <v>1</v>
@@ -5746,22 +5764,22 @@
         <v>13</v>
       </c>
       <c r="B215" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C215" s="1">
         <v>5</v>
       </c>
       <c r="D215" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E215" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F215" s="1">
         <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H215" s="1">
         <v>4</v>
@@ -5772,22 +5790,22 @@
         <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C216" s="1">
         <v>5</v>
       </c>
       <c r="D216" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E216" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F216" s="1">
         <v>4</v>
       </c>
       <c r="G216" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H216" s="1">
         <v>1</v>
@@ -5798,22 +5816,22 @@
         <v>13</v>
       </c>
       <c r="B217" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C217" s="1">
         <v>5</v>
       </c>
       <c r="D217" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E217" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F217" s="1">
         <v>3</v>
       </c>
       <c r="G217" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H217" s="1">
         <v>1</v>
@@ -5824,22 +5842,22 @@
         <v>13</v>
       </c>
       <c r="B218" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C218" s="1">
         <v>5</v>
       </c>
       <c r="D218" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E218" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F218" s="1">
         <v>3</v>
       </c>
       <c r="G218" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H218" s="1">
         <v>1</v>
@@ -5850,22 +5868,22 @@
         <v>13</v>
       </c>
       <c r="B219" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C219" s="1">
         <v>5</v>
       </c>
       <c r="D219" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E219" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F219" s="1">
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H219" s="1">
         <v>3</v>
@@ -5876,22 +5894,22 @@
         <v>13</v>
       </c>
       <c r="B220" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C220" s="1">
         <v>5</v>
       </c>
       <c r="D220" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F220" s="1">
         <v>1</v>
       </c>
       <c r="G220" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H220" s="1">
         <v>10</v>
@@ -5902,22 +5920,22 @@
         <v>13</v>
       </c>
       <c r="B221" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C221" s="1">
         <v>5</v>
       </c>
       <c r="D221" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E221" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F221" s="1">
         <v>1</v>
       </c>
       <c r="G221" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H221" s="1">
         <v>10</v>
@@ -5928,22 +5946,22 @@
         <v>13</v>
       </c>
       <c r="B222" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C222" s="1">
         <v>5</v>
       </c>
       <c r="D222" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E222" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F222" s="1">
         <v>2</v>
       </c>
       <c r="G222" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H222" s="1">
         <v>6</v>
@@ -5954,22 +5972,22 @@
         <v>13</v>
       </c>
       <c r="B223" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C223" s="1">
         <v>5</v>
       </c>
       <c r="D223" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E223" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F223" s="1">
         <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H223" s="1">
         <v>2</v>
@@ -5980,22 +5998,22 @@
         <v>13</v>
       </c>
       <c r="B224" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C224" s="1">
         <v>5</v>
       </c>
       <c r="D224" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E224" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F224" s="1">
         <v>1</v>
       </c>
       <c r="G224" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H224" s="1">
         <v>2</v>
@@ -6006,22 +6024,22 @@
         <v>13</v>
       </c>
       <c r="B225" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C225" s="1">
         <v>5</v>
       </c>
       <c r="D225" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E225" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F225" s="1">
         <v>1</v>
       </c>
       <c r="G225" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H225" s="1">
         <v>3</v>
@@ -6032,22 +6050,22 @@
         <v>13</v>
       </c>
       <c r="B226" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C226" s="1">
         <v>5</v>
       </c>
       <c r="D226" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E226" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F226" s="1">
         <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H226" s="1">
         <v>10</v>
@@ -6058,20 +6076,20 @@
         <v>13</v>
       </c>
       <c r="B227" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C227" s="1">
         <v>5</v>
       </c>
       <c r="D227" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E227" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H227" s="1">
         <v>1</v>
@@ -6082,22 +6100,22 @@
         <v>13</v>
       </c>
       <c r="B228" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C228" s="1">
         <v>5</v>
       </c>
       <c r="D228" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F228" s="1">
         <v>5</v>
       </c>
       <c r="G228" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H228" s="1">
         <v>10</v>
@@ -6108,22 +6126,22 @@
         <v>13</v>
       </c>
       <c r="B229" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C229" s="1">
         <v>5</v>
       </c>
       <c r="D229" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E229" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F229" s="1">
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H229" s="1">
         <v>3</v>
@@ -6134,22 +6152,22 @@
         <v>13</v>
       </c>
       <c r="B230" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C230" s="1">
         <v>5</v>
       </c>
       <c r="D230" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E230" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F230" s="1">
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H230" s="1">
         <v>2</v>
@@ -6160,22 +6178,22 @@
         <v>13</v>
       </c>
       <c r="B231" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C231" s="1">
         <v>5</v>
       </c>
       <c r="D231" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E231" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F231" s="1">
         <v>4</v>
       </c>
       <c r="G231" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H231" s="1">
         <v>1</v>
@@ -6186,22 +6204,22 @@
         <v>13</v>
       </c>
       <c r="B232" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C232" s="1">
         <v>5</v>
       </c>
       <c r="D232" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F232" s="1">
         <v>0.5</v>
       </c>
       <c r="G232" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H232" s="1">
         <v>3</v>
@@ -6212,18 +6230,18 @@
         <v>13</v>
       </c>
       <c r="B233" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H233" s="1">
         <v>5</v>
@@ -6234,18 +6252,18 @@
         <v>14</v>
       </c>
       <c r="B234" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E234" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F234" s="1"/>
       <c r="G234" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H234" s="1">
         <v>16</v>
@@ -6256,18 +6274,18 @@
         <v>15</v>
       </c>
       <c r="B235" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E235" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H235" s="1">
         <v>48</v>
@@ -6278,22 +6296,22 @@
         <v>16</v>
       </c>
       <c r="B236" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C236" s="1">
         <v>5</v>
       </c>
       <c r="D236" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E236" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F236" s="1">
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H236" s="1">
         <v>10</v>
@@ -6304,22 +6322,22 @@
         <v>16</v>
       </c>
       <c r="B237" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C237" s="1">
         <v>5</v>
       </c>
       <c r="D237" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E237" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F237" s="1">
         <v>1</v>
       </c>
       <c r="G237" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H237" s="1">
         <v>10</v>
@@ -6330,22 +6348,22 @@
         <v>16</v>
       </c>
       <c r="B238" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C238" s="1">
         <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E238" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F238" s="1">
         <v>1</v>
       </c>
       <c r="G238" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H238" s="1">
         <v>3</v>
@@ -6356,22 +6374,22 @@
         <v>16</v>
       </c>
       <c r="B239" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C239" s="1">
         <v>5</v>
       </c>
       <c r="D239" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E239" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F239" s="1">
         <v>3</v>
       </c>
       <c r="G239" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H239" s="1">
         <v>6</v>
@@ -6382,22 +6400,22 @@
         <v>16</v>
       </c>
       <c r="B240" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C240" s="1">
         <v>5</v>
       </c>
       <c r="D240" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E240" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F240" s="1">
         <v>6</v>
       </c>
       <c r="G240" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H240" s="1">
         <v>2</v>
@@ -6408,22 +6426,22 @@
         <v>16</v>
       </c>
       <c r="B241" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C241" s="1">
         <v>5</v>
       </c>
       <c r="D241" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E241" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F241" s="1">
         <v>3</v>
       </c>
       <c r="G241" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H241" s="1">
         <v>1</v>
@@ -6434,22 +6452,22 @@
         <v>16</v>
       </c>
       <c r="B242" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C242" s="1">
         <v>5</v>
       </c>
       <c r="D242" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E242" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F242" s="1">
         <v>1</v>
       </c>
       <c r="G242" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H242" s="1">
         <v>10</v>
@@ -6460,22 +6478,22 @@
         <v>16</v>
       </c>
       <c r="B243" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C243" s="1">
         <v>5</v>
       </c>
       <c r="D243" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E243" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F243" s="1">
         <v>1</v>
       </c>
       <c r="G243" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H243" s="1">
         <v>5</v>
@@ -6486,22 +6504,22 @@
         <v>16</v>
       </c>
       <c r="B244" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C244" s="1">
         <v>5</v>
       </c>
       <c r="D244" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E244" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F244" s="1">
         <v>1</v>
       </c>
       <c r="G244" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H244" s="1">
         <v>10</v>
@@ -6512,22 +6530,22 @@
         <v>16</v>
       </c>
       <c r="B245" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C245" s="1">
         <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E245" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F245" s="1">
         <v>6</v>
       </c>
       <c r="G245" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H245" s="1">
         <v>2</v>
@@ -6538,22 +6556,22 @@
         <v>16</v>
       </c>
       <c r="B246" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C246" s="1">
         <v>5</v>
       </c>
       <c r="D246" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E246" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F246" s="1">
         <v>3</v>
       </c>
       <c r="G246" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H246" s="1">
         <v>1</v>
@@ -6564,22 +6582,22 @@
         <v>16</v>
       </c>
       <c r="B247" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C247" s="1">
         <v>5</v>
       </c>
       <c r="D247" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E247" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F247" s="1">
         <v>4</v>
       </c>
       <c r="G247" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H247" s="1">
         <v>2</v>
@@ -6590,22 +6608,22 @@
         <v>16</v>
       </c>
       <c r="B248" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C248" s="1">
         <v>5</v>
       </c>
       <c r="D248" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E248" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F248" s="1">
         <v>7</v>
       </c>
       <c r="G248" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H248" s="1">
         <v>14</v>
@@ -6616,22 +6634,22 @@
         <v>16</v>
       </c>
       <c r="B249" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C249" s="1">
         <v>5</v>
       </c>
       <c r="D249" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E249" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F249" s="1">
         <v>1</v>
       </c>
       <c r="G249" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H249" s="1">
         <v>2</v>
@@ -6642,22 +6660,22 @@
         <v>16</v>
       </c>
       <c r="B250" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C250" s="1">
         <v>5</v>
       </c>
       <c r="D250" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E250" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F250" s="1">
         <v>1</v>
       </c>
       <c r="G250" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H250" s="1">
         <v>10</v>
@@ -6668,22 +6686,22 @@
         <v>16</v>
       </c>
       <c r="B251" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C251" s="1">
         <v>5</v>
       </c>
       <c r="D251" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E251" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F251" s="1">
         <v>1</v>
       </c>
       <c r="G251" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H251" s="1">
         <v>10</v>
@@ -6694,22 +6712,22 @@
         <v>16</v>
       </c>
       <c r="B252" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C252" s="1">
         <v>5</v>
       </c>
       <c r="D252" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E252" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F252" s="1">
         <v>1</v>
       </c>
       <c r="G252" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H252" s="1">
         <v>3</v>
@@ -6720,22 +6738,22 @@
         <v>16</v>
       </c>
       <c r="B253" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C253" s="1">
         <v>5</v>
       </c>
       <c r="D253" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E253" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F253" s="1">
         <v>2</v>
       </c>
       <c r="G253" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H253" s="1">
         <v>0.5</v>
@@ -6746,22 +6764,22 @@
         <v>16</v>
       </c>
       <c r="B254" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C254" s="1">
         <v>5</v>
       </c>
       <c r="D254" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E254" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F254" s="1">
         <v>2</v>
       </c>
       <c r="G254" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H254" s="1">
         <v>0.5</v>
@@ -6772,22 +6790,22 @@
         <v>16</v>
       </c>
       <c r="B255" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C255" s="1">
         <v>5</v>
       </c>
       <c r="D255" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E255" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F255" s="1">
         <v>2</v>
       </c>
       <c r="G255" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H255" s="1">
         <v>1</v>
@@ -6798,22 +6816,22 @@
         <v>16</v>
       </c>
       <c r="B256" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C256" s="1">
         <v>5</v>
       </c>
       <c r="D256" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E256" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F256" s="1">
         <v>4</v>
       </c>
       <c r="G256" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H256" s="1">
         <v>1</v>
@@ -6824,22 +6842,22 @@
         <v>16</v>
       </c>
       <c r="B257" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C257" s="1">
         <v>5</v>
       </c>
       <c r="D257" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E257" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F257" s="1">
         <v>8</v>
       </c>
       <c r="G257" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H257" s="1">
         <v>2</v>
@@ -6850,22 +6868,22 @@
         <v>16</v>
       </c>
       <c r="B258" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C258" s="1">
         <v>5</v>
       </c>
       <c r="D258" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E258" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F258" s="1">
         <v>1</v>
       </c>
       <c r="G258" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H258" s="1">
         <v>2</v>
@@ -6876,22 +6894,22 @@
         <v>16</v>
       </c>
       <c r="B259" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C259" s="1">
         <v>5</v>
       </c>
       <c r="D259" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E259" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F259" s="1">
         <v>1</v>
       </c>
       <c r="G259" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H259" s="1">
         <v>5</v>
@@ -6902,22 +6920,22 @@
         <v>16</v>
       </c>
       <c r="B260" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C260" s="1">
         <v>5</v>
       </c>
       <c r="D260" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E260" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F260" s="1">
         <v>36</v>
       </c>
       <c r="G260" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H260" s="1">
         <v>9</v>
@@ -6928,22 +6946,22 @@
         <v>16</v>
       </c>
       <c r="B261" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C261" s="1">
         <v>5</v>
       </c>
       <c r="D261" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E261" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F261" s="1">
         <v>1</v>
       </c>
       <c r="G261" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H261" s="1">
         <v>10</v>
@@ -6954,22 +6972,22 @@
         <v>16</v>
       </c>
       <c r="B262" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C262" s="1">
         <v>5</v>
       </c>
       <c r="D262" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E262" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F262" s="1">
         <v>1</v>
       </c>
       <c r="G262" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H262" s="1">
         <v>10</v>
@@ -6980,22 +6998,22 @@
         <v>17</v>
       </c>
       <c r="B263" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C263" s="1">
         <v>5</v>
       </c>
       <c r="D263" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E263" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F263" s="1">
         <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H263" s="1">
         <v>6</v>
@@ -7006,22 +7024,22 @@
         <v>17</v>
       </c>
       <c r="B264" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C264" s="1">
         <v>5</v>
       </c>
       <c r="D264" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E264" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F264" s="1">
         <v>2</v>
       </c>
       <c r="G264" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H264" s="1">
         <v>6</v>
@@ -7032,22 +7050,22 @@
         <v>17</v>
       </c>
       <c r="B265" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C265" s="1">
         <v>5</v>
       </c>
       <c r="D265" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E265" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F265" s="1">
         <v>2</v>
       </c>
       <c r="G265" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H265" s="1">
         <v>5</v>
@@ -7058,22 +7076,22 @@
         <v>17</v>
       </c>
       <c r="B266" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C266" s="1">
         <v>5</v>
       </c>
       <c r="D266" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E266" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F266" s="1">
         <v>4</v>
       </c>
       <c r="G266" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H266" s="1">
         <v>0.5</v>
@@ -7084,22 +7102,22 @@
         <v>17</v>
       </c>
       <c r="B267" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C267" s="1">
         <v>5</v>
       </c>
       <c r="D267" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E267" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F267" s="1">
         <v>1</v>
       </c>
       <c r="G267" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H267" s="1">
         <v>0.5</v>
@@ -7110,22 +7128,22 @@
         <v>17</v>
       </c>
       <c r="B268" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C268" s="1">
         <v>5</v>
       </c>
       <c r="D268" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E268" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F268" s="1">
         <v>1</v>
       </c>
       <c r="G268" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H268" s="1">
         <v>2</v>
@@ -7136,22 +7154,22 @@
         <v>17</v>
       </c>
       <c r="B269" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C269" s="1">
         <v>5</v>
       </c>
       <c r="D269" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E269" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F269" s="1">
         <v>2</v>
       </c>
       <c r="G269" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H269" s="1">
         <v>0.5</v>
@@ -7162,22 +7180,22 @@
         <v>17</v>
       </c>
       <c r="B270" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C270" s="1">
         <v>5</v>
       </c>
       <c r="D270" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E270" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F270" s="1">
         <v>2</v>
       </c>
       <c r="G270" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H270" s="1">
         <v>0.5</v>
@@ -7188,22 +7206,22 @@
         <v>17</v>
       </c>
       <c r="B271" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C271" s="1">
         <v>5</v>
       </c>
       <c r="D271" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E271" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F271" s="1">
         <v>3</v>
       </c>
       <c r="G271" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H271" s="1">
         <v>1</v>
@@ -7214,22 +7232,22 @@
         <v>17</v>
       </c>
       <c r="B272" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C272" s="1">
         <v>5</v>
       </c>
       <c r="D272" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E272" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F272" s="1">
         <v>3</v>
       </c>
       <c r="G272" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H272" s="1">
         <v>1</v>
@@ -7240,22 +7258,22 @@
         <v>17</v>
       </c>
       <c r="B273" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C273" s="1">
         <v>5</v>
       </c>
       <c r="D273" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E273" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F273" s="1">
         <v>6</v>
       </c>
       <c r="G273" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H273" s="1">
         <v>2</v>
@@ -7266,22 +7284,22 @@
         <v>17</v>
       </c>
       <c r="B274" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C274" s="1">
         <v>5</v>
       </c>
       <c r="D274" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E274" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F274" s="1">
         <v>4</v>
       </c>
       <c r="G274" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H274" s="1">
         <v>1</v>
@@ -7292,22 +7310,22 @@
         <v>17</v>
       </c>
       <c r="B275" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C275" s="1">
         <v>5</v>
       </c>
       <c r="D275" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E275" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F275" s="1">
         <v>6</v>
       </c>
       <c r="G275" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H275" s="1">
         <v>2</v>
@@ -7318,22 +7336,22 @@
         <v>17</v>
       </c>
       <c r="B276" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C276" s="1">
         <v>5</v>
       </c>
       <c r="D276" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E276" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F276" s="1">
         <v>1</v>
       </c>
       <c r="G276" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H276" s="1">
         <v>3</v>
@@ -7344,22 +7362,22 @@
         <v>17</v>
       </c>
       <c r="B277" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C277" s="1">
         <v>5</v>
       </c>
       <c r="D277" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E277" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F277" s="1">
         <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H277" s="1">
         <v>10</v>
@@ -7370,22 +7388,22 @@
         <v>17</v>
       </c>
       <c r="B278" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C278" s="1">
         <v>5</v>
       </c>
       <c r="D278" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E278" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F278" s="1">
         <v>1</v>
       </c>
       <c r="G278" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H278" s="1">
         <v>10</v>
@@ -7396,22 +7414,22 @@
         <v>17</v>
       </c>
       <c r="B279" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C279" s="1">
         <v>5</v>
       </c>
       <c r="D279" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E279" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F279" s="1">
         <v>1</v>
       </c>
       <c r="G279" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H279" s="1">
         <v>4</v>
@@ -7422,22 +7440,22 @@
         <v>17</v>
       </c>
       <c r="B280" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C280" s="1">
         <v>5</v>
       </c>
       <c r="D280" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E280" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F280" s="1">
         <v>40</v>
       </c>
       <c r="G280" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H280" s="1">
         <v>5</v>
@@ -7448,25 +7466,817 @@
         <v>17</v>
       </c>
       <c r="B281" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C281" s="1">
         <v>5</v>
       </c>
       <c r="D281" t="s">
+        <v>25</v>
+      </c>
+      <c r="E281" t="s">
+        <v>28</v>
+      </c>
+      <c r="F281" s="1">
+        <v>1</v>
+      </c>
+      <c r="G281" t="s">
+        <v>66</v>
+      </c>
+      <c r="H281" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>18</v>
+      </c>
+      <c r="B282" t="s">
+        <v>20</v>
+      </c>
+      <c r="C282" s="1"/>
+      <c r="D282" t="s">
         <v>24</v>
       </c>
-      <c r="E281" t="s">
-        <v>27</v>
-      </c>
-      <c r="F281" s="1">
-        <v>1</v>
-      </c>
-      <c r="G281" t="s">
+      <c r="E282" t="s">
+        <v>28</v>
+      </c>
+      <c r="F282" s="1">
+        <v>2</v>
+      </c>
+      <c r="G282" t="s">
+        <v>66</v>
+      </c>
+      <c r="H282" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>18</v>
+      </c>
+      <c r="B283" t="s">
+        <v>20</v>
+      </c>
+      <c r="C283" s="1"/>
+      <c r="D283" t="s">
+        <v>24</v>
+      </c>
+      <c r="E283" t="s">
+        <v>32</v>
+      </c>
+      <c r="F283" s="1">
+        <v>2</v>
+      </c>
+      <c r="G283" t="s">
+        <v>66</v>
+      </c>
+      <c r="H283" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>18</v>
+      </c>
+      <c r="B284" t="s">
+        <v>20</v>
+      </c>
+      <c r="C284" s="1"/>
+      <c r="D284" t="s">
+        <v>24</v>
+      </c>
+      <c r="E284" t="s">
+        <v>30</v>
+      </c>
+      <c r="F284" s="1">
+        <v>8</v>
+      </c>
+      <c r="G284" t="s">
+        <v>67</v>
+      </c>
+      <c r="H284" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>18</v>
+      </c>
+      <c r="B285" t="s">
+        <v>20</v>
+      </c>
+      <c r="C285" s="1"/>
+      <c r="D285" t="s">
+        <v>24</v>
+      </c>
+      <c r="E285" t="s">
+        <v>60</v>
+      </c>
+      <c r="F285" s="1">
+        <v>6</v>
+      </c>
+      <c r="G285" t="s">
+        <v>67</v>
+      </c>
+      <c r="H285" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>18</v>
+      </c>
+      <c r="B286" t="s">
+        <v>20</v>
+      </c>
+      <c r="C286" s="1"/>
+      <c r="D286" t="s">
+        <v>24</v>
+      </c>
+      <c r="E286" t="s">
+        <v>58</v>
+      </c>
+      <c r="F286" s="1">
+        <v>1</v>
+      </c>
+      <c r="G286" t="s">
+        <v>67</v>
+      </c>
+      <c r="H286" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>18</v>
+      </c>
+      <c r="B287" t="s">
+        <v>20</v>
+      </c>
+      <c r="C287" s="1"/>
+      <c r="D287" t="s">
+        <v>24</v>
+      </c>
+      <c r="E287" t="s">
+        <v>58</v>
+      </c>
+      <c r="F287" s="1">
+        <v>2</v>
+      </c>
+      <c r="G287" t="s">
+        <v>67</v>
+      </c>
+      <c r="H287" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>18</v>
+      </c>
+      <c r="B288" t="s">
+        <v>20</v>
+      </c>
+      <c r="C288" s="1"/>
+      <c r="D288" t="s">
+        <v>24</v>
+      </c>
+      <c r="E288" t="s">
+        <v>41</v>
+      </c>
+      <c r="F288" s="1">
+        <v>4</v>
+      </c>
+      <c r="G288" t="s">
+        <v>67</v>
+      </c>
+      <c r="H288" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>18</v>
+      </c>
+      <c r="B289" t="s">
+        <v>20</v>
+      </c>
+      <c r="C289" s="1"/>
+      <c r="D289" t="s">
+        <v>24</v>
+      </c>
+      <c r="E289" t="s">
+        <v>58</v>
+      </c>
+      <c r="F289" s="1">
+        <v>1</v>
+      </c>
+      <c r="G289" t="s">
+        <v>67</v>
+      </c>
+      <c r="H289" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>18</v>
+      </c>
+      <c r="B290" t="s">
+        <v>20</v>
+      </c>
+      <c r="C290" s="1"/>
+      <c r="D290" t="s">
+        <v>24</v>
+      </c>
+      <c r="E290" t="s">
+        <v>51</v>
+      </c>
+      <c r="F290" s="1">
+        <v>25</v>
+      </c>
+      <c r="G290" t="s">
+        <v>67</v>
+      </c>
+      <c r="H290" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>18</v>
+      </c>
+      <c r="B291" t="s">
+        <v>20</v>
+      </c>
+      <c r="C291" s="1"/>
+      <c r="D291" t="s">
+        <v>24</v>
+      </c>
+      <c r="E291" t="s">
+        <v>54</v>
+      </c>
+      <c r="F291" s="1">
+        <v>20</v>
+      </c>
+      <c r="G291" t="s">
+        <v>73</v>
+      </c>
+      <c r="H291" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>18</v>
+      </c>
+      <c r="B292" t="s">
+        <v>20</v>
+      </c>
+      <c r="C292" s="1"/>
+      <c r="D292" t="s">
+        <v>24</v>
+      </c>
+      <c r="E292" t="s">
+        <v>44</v>
+      </c>
+      <c r="F292" s="1">
+        <v>1</v>
+      </c>
+      <c r="G292" t="s">
+        <v>67</v>
+      </c>
+      <c r="H292" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>18</v>
+      </c>
+      <c r="B293" t="s">
+        <v>20</v>
+      </c>
+      <c r="C293" s="1"/>
+      <c r="D293" t="s">
+        <v>24</v>
+      </c>
+      <c r="E293" t="s">
         <v>61</v>
       </c>
-      <c r="H281" s="1">
-        <v>10</v>
+      <c r="F293" s="1">
+        <v>3</v>
+      </c>
+      <c r="G293" t="s">
+        <v>67</v>
+      </c>
+      <c r="H293" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>18</v>
+      </c>
+      <c r="B294" t="s">
+        <v>20</v>
+      </c>
+      <c r="C294" s="1"/>
+      <c r="D294" t="s">
+        <v>24</v>
+      </c>
+      <c r="E294" t="s">
+        <v>62</v>
+      </c>
+      <c r="F294" s="1">
+        <v>3</v>
+      </c>
+      <c r="G294" t="s">
+        <v>67</v>
+      </c>
+      <c r="H294" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>18</v>
+      </c>
+      <c r="B295" t="s">
+        <v>20</v>
+      </c>
+      <c r="C295" s="1"/>
+      <c r="D295" t="s">
+        <v>24</v>
+      </c>
+      <c r="E295" t="s">
+        <v>63</v>
+      </c>
+      <c r="F295" s="1">
+        <v>4</v>
+      </c>
+      <c r="G295" t="s">
+        <v>67</v>
+      </c>
+      <c r="H295" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>18</v>
+      </c>
+      <c r="B296" t="s">
+        <v>20</v>
+      </c>
+      <c r="C296" s="1"/>
+      <c r="D296" t="s">
+        <v>24</v>
+      </c>
+      <c r="E296" t="s">
+        <v>43</v>
+      </c>
+      <c r="F296" s="1">
+        <v>10</v>
+      </c>
+      <c r="G296" t="s">
+        <v>67</v>
+      </c>
+      <c r="H296" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>18</v>
+      </c>
+      <c r="B297" t="s">
+        <v>20</v>
+      </c>
+      <c r="C297" s="1"/>
+      <c r="D297" t="s">
+        <v>24</v>
+      </c>
+      <c r="E297" t="s">
+        <v>54</v>
+      </c>
+      <c r="F297" s="1">
+        <v>4</v>
+      </c>
+      <c r="G297" t="s">
+        <v>67</v>
+      </c>
+      <c r="H297" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>18</v>
+      </c>
+      <c r="B298" t="s">
+        <v>20</v>
+      </c>
+      <c r="C298" s="1"/>
+      <c r="D298" t="s">
+        <v>24</v>
+      </c>
+      <c r="E298" t="s">
+        <v>41</v>
+      </c>
+      <c r="F298" s="1">
+        <v>4</v>
+      </c>
+      <c r="G298" t="s">
+        <v>67</v>
+      </c>
+      <c r="H298" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>18</v>
+      </c>
+      <c r="B299" t="s">
+        <v>20</v>
+      </c>
+      <c r="C299" s="1"/>
+      <c r="D299" t="s">
+        <v>24</v>
+      </c>
+      <c r="E299" t="s">
+        <v>63</v>
+      </c>
+      <c r="F299" s="1">
+        <v>5</v>
+      </c>
+      <c r="G299" t="s">
+        <v>67</v>
+      </c>
+      <c r="H299" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>18</v>
+      </c>
+      <c r="B300" t="s">
+        <v>20</v>
+      </c>
+      <c r="C300" s="1"/>
+      <c r="D300" t="s">
+        <v>24</v>
+      </c>
+      <c r="E300" t="s">
+        <v>61</v>
+      </c>
+      <c r="F300" s="1">
+        <v>4</v>
+      </c>
+      <c r="G300" t="s">
+        <v>67</v>
+      </c>
+      <c r="H300" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>18</v>
+      </c>
+      <c r="B301" t="s">
+        <v>20</v>
+      </c>
+      <c r="C301" s="1"/>
+      <c r="D301" t="s">
+        <v>24</v>
+      </c>
+      <c r="E301" t="s">
+        <v>62</v>
+      </c>
+      <c r="F301" s="1">
+        <v>3</v>
+      </c>
+      <c r="G301" t="s">
+        <v>67</v>
+      </c>
+      <c r="H301" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>18</v>
+      </c>
+      <c r="B302" t="s">
+        <v>20</v>
+      </c>
+      <c r="C302" s="1"/>
+      <c r="D302" t="s">
+        <v>24</v>
+      </c>
+      <c r="E302" t="s">
+        <v>63</v>
+      </c>
+      <c r="F302" s="1">
+        <v>3</v>
+      </c>
+      <c r="G302" t="s">
+        <v>67</v>
+      </c>
+      <c r="H302" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>18</v>
+      </c>
+      <c r="B303" t="s">
+        <v>20</v>
+      </c>
+      <c r="C303" s="1"/>
+      <c r="D303" t="s">
+        <v>24</v>
+      </c>
+      <c r="E303" t="s">
+        <v>28</v>
+      </c>
+      <c r="F303" s="1">
+        <v>1</v>
+      </c>
+      <c r="G303" t="s">
+        <v>66</v>
+      </c>
+      <c r="H303" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>18</v>
+      </c>
+      <c r="B304" t="s">
+        <v>20</v>
+      </c>
+      <c r="C304" s="1"/>
+      <c r="D304" t="s">
+        <v>24</v>
+      </c>
+      <c r="E304" t="s">
+        <v>43</v>
+      </c>
+      <c r="F304" s="1">
+        <v>10</v>
+      </c>
+      <c r="G304" t="s">
+        <v>67</v>
+      </c>
+      <c r="H304" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>18</v>
+      </c>
+      <c r="B305" t="s">
+        <v>20</v>
+      </c>
+      <c r="C305" s="1"/>
+      <c r="D305" t="s">
+        <v>24</v>
+      </c>
+      <c r="E305" t="s">
+        <v>28</v>
+      </c>
+      <c r="F305" s="1">
+        <v>1</v>
+      </c>
+      <c r="G305" t="s">
+        <v>66</v>
+      </c>
+      <c r="H305" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>18</v>
+      </c>
+      <c r="B306" t="s">
+        <v>20</v>
+      </c>
+      <c r="C306" s="1"/>
+      <c r="D306" t="s">
+        <v>24</v>
+      </c>
+      <c r="E306" t="s">
+        <v>43</v>
+      </c>
+      <c r="F306" s="1">
+        <v>10</v>
+      </c>
+      <c r="G306" t="s">
+        <v>67</v>
+      </c>
+      <c r="H306" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>18</v>
+      </c>
+      <c r="B307" t="s">
+        <v>20</v>
+      </c>
+      <c r="C307" s="1"/>
+      <c r="D307" t="s">
+        <v>24</v>
+      </c>
+      <c r="E307" t="s">
+        <v>61</v>
+      </c>
+      <c r="F307" s="1">
+        <v>3</v>
+      </c>
+      <c r="G307" t="s">
+        <v>67</v>
+      </c>
+      <c r="H307" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>18</v>
+      </c>
+      <c r="B308" t="s">
+        <v>20</v>
+      </c>
+      <c r="C308" s="1"/>
+      <c r="D308" t="s">
+        <v>24</v>
+      </c>
+      <c r="E308" t="s">
+        <v>62</v>
+      </c>
+      <c r="F308" s="1">
+        <v>4</v>
+      </c>
+      <c r="G308" t="s">
+        <v>67</v>
+      </c>
+      <c r="H308" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>18</v>
+      </c>
+      <c r="B309" t="s">
+        <v>20</v>
+      </c>
+      <c r="C309" s="1"/>
+      <c r="D309" t="s">
+        <v>24</v>
+      </c>
+      <c r="E309" t="s">
+        <v>63</v>
+      </c>
+      <c r="F309" s="1">
+        <v>3</v>
+      </c>
+      <c r="G309" t="s">
+        <v>67</v>
+      </c>
+      <c r="H309" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>18</v>
+      </c>
+      <c r="B310" t="s">
+        <v>20</v>
+      </c>
+      <c r="C310" s="1"/>
+      <c r="D310" t="s">
+        <v>24</v>
+      </c>
+      <c r="E310" t="s">
+        <v>43</v>
+      </c>
+      <c r="F310" s="1">
+        <v>10</v>
+      </c>
+      <c r="G310" t="s">
+        <v>67</v>
+      </c>
+      <c r="H310" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>18</v>
+      </c>
+      <c r="B311" t="s">
+        <v>20</v>
+      </c>
+      <c r="C311" s="1"/>
+      <c r="D311" t="s">
+        <v>24</v>
+      </c>
+      <c r="E311" t="s">
+        <v>43</v>
+      </c>
+      <c r="F311" s="1">
+        <v>10</v>
+      </c>
+      <c r="G311" t="s">
+        <v>67</v>
+      </c>
+      <c r="H311" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>18</v>
+      </c>
+      <c r="B312" t="s">
+        <v>20</v>
+      </c>
+      <c r="C312" s="1"/>
+      <c r="D312" t="s">
+        <v>24</v>
+      </c>
+      <c r="E312" t="s">
+        <v>62</v>
+      </c>
+      <c r="F312" s="1">
+        <v>50</v>
+      </c>
+      <c r="G312" t="s">
+        <v>67</v>
+      </c>
+      <c r="H312" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>18</v>
+      </c>
+      <c r="B313" t="s">
+        <v>20</v>
+      </c>
+      <c r="C313" s="1"/>
+      <c r="D313" t="s">
+        <v>24</v>
+      </c>
+      <c r="E313" t="s">
+        <v>63</v>
+      </c>
+      <c r="F313" s="1">
+        <v>50</v>
+      </c>
+      <c r="G313" t="s">
+        <v>67</v>
+      </c>
+      <c r="H313" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>18</v>
+      </c>
+      <c r="B314" t="s">
+        <v>20</v>
+      </c>
+      <c r="C314" s="1"/>
+      <c r="D314" t="s">
+        <v>24</v>
+      </c>
+      <c r="E314" t="s">
+        <v>59</v>
+      </c>
+      <c r="F314" s="1">
+        <v>1</v>
+      </c>
+      <c r="G314" t="s">
+        <v>68</v>
+      </c>
+      <c r="H314" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
